--- a/Code/Results/Cases/Case_3_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.13002520597235</v>
+        <v>9.280306156861851</v>
       </c>
       <c r="C2">
-        <v>6.899451445386966</v>
+        <v>4.447645291865344</v>
       </c>
       <c r="D2">
-        <v>7.9729470345296</v>
+        <v>10.36178816753482</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.94434495324571</v>
+        <v>33.54911877370986</v>
       </c>
       <c r="G2">
-        <v>2.100498480915093</v>
+        <v>3.657742004949989</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.22354939527702</v>
+        <v>22.73886863982194</v>
       </c>
       <c r="J2">
-        <v>6.95749359120596</v>
+        <v>11.32968507126717</v>
       </c>
       <c r="K2">
-        <v>10.93341720133976</v>
+        <v>9.53859081514925</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.38608388007075</v>
+        <v>16.23787269867134</v>
       </c>
       <c r="N2">
-        <v>12.65182055375224</v>
+        <v>19.57683185014094</v>
       </c>
       <c r="O2">
-        <v>15.90234490897514</v>
+        <v>24.77104584977666</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.34898852593016</v>
+        <v>9.030210797441091</v>
       </c>
       <c r="C3">
-        <v>6.472394300667041</v>
+        <v>4.277911756317233</v>
       </c>
       <c r="D3">
-        <v>7.641808190210337</v>
+        <v>10.31951106018192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.6595886884468</v>
+        <v>33.6020666184061</v>
       </c>
       <c r="G3">
-        <v>2.104816446603348</v>
+        <v>3.659404128894479</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.34770013721405</v>
+        <v>22.81921275519354</v>
       </c>
       <c r="J3">
-        <v>6.905303236590711</v>
+        <v>11.34716626520602</v>
       </c>
       <c r="K3">
-        <v>10.29060778854939</v>
+        <v>9.380431016574175</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.85735362234029</v>
+        <v>16.16713098031706</v>
       </c>
       <c r="N3">
-        <v>12.84149658926425</v>
+        <v>19.63431106048354</v>
       </c>
       <c r="O3">
-        <v>15.90335051936197</v>
+        <v>24.84136793999944</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.84142540959287</v>
+        <v>8.874608905566012</v>
       </c>
       <c r="C4">
-        <v>6.195659398433718</v>
+        <v>4.170760155576389</v>
       </c>
       <c r="D4">
-        <v>7.434585210559998</v>
+        <v>10.29532626544949</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.50065616439083</v>
+        <v>33.64169927920811</v>
       </c>
       <c r="G4">
-        <v>2.107554670361689</v>
+        <v>3.660479510867735</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.43318218211795</v>
+        <v>22.87230482645739</v>
       </c>
       <c r="J4">
-        <v>6.876623676484258</v>
+        <v>11.35949728460555</v>
       </c>
       <c r="K4">
-        <v>9.874672423090331</v>
+        <v>9.283472633348939</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.52548104896119</v>
+        <v>16.12625983289112</v>
       </c>
       <c r="N4">
-        <v>12.96065108965546</v>
+        <v>19.67126151905453</v>
       </c>
       <c r="O4">
-        <v>15.9156888629475</v>
+        <v>24.88910343816542</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.62753459743243</v>
+        <v>8.810784461670211</v>
       </c>
       <c r="C5">
-        <v>6.079243149680043</v>
+        <v>4.12642360227914</v>
       </c>
       <c r="D5">
-        <v>7.349286024791477</v>
+        <v>10.28592428803826</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.43985556030577</v>
+        <v>33.65963898400152</v>
       </c>
       <c r="G5">
-        <v>2.10869280137822</v>
+        <v>3.660931567549819</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.47026020925085</v>
+        <v>22.89488569068002</v>
       </c>
       <c r="J5">
-        <v>6.865773114402739</v>
+        <v>11.36492412322111</v>
       </c>
       <c r="K5">
-        <v>9.699868542270657</v>
+        <v>9.244049314856534</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.38861915180167</v>
+        <v>16.11026206432033</v>
       </c>
       <c r="N5">
-        <v>13.00990334933273</v>
+        <v>19.68673725808937</v>
       </c>
       <c r="O5">
-        <v>15.92356421843324</v>
+        <v>24.90970078226614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.59159184044472</v>
+        <v>8.800164344842754</v>
       </c>
       <c r="C6">
-        <v>6.059692527586434</v>
+        <v>4.119023083714421</v>
       </c>
       <c r="D6">
-        <v>7.335074574578905</v>
+        <v>10.2843906989766</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.42999793831578</v>
+        <v>33.66272584799746</v>
       </c>
       <c r="G6">
-        <v>2.108883144742415</v>
+        <v>3.66100746774123</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.47655012634651</v>
+        <v>22.89869232154539</v>
       </c>
       <c r="J6">
-        <v>6.864021604866906</v>
+        <v>11.36584951962802</v>
       </c>
       <c r="K6">
-        <v>9.670523300925437</v>
+        <v>9.237509879843298</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.36580166263687</v>
+        <v>16.10764571703708</v>
       </c>
       <c r="N6">
-        <v>13.01812421011078</v>
+        <v>19.68933228228354</v>
       </c>
       <c r="O6">
-        <v>15.92504095490267</v>
+        <v>24.91319005665724</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.83856938069319</v>
+        <v>8.873749695136507</v>
       </c>
       <c r="C7">
-        <v>6.194104111131427</v>
+        <v>4.170164842694754</v>
       </c>
       <c r="D7">
-        <v>7.433438115502724</v>
+        <v>10.29519762120245</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.4998201837469</v>
+        <v>33.64193397937103</v>
       </c>
       <c r="G7">
-        <v>2.107569928838976</v>
+        <v>3.660485551409653</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.43367325295965</v>
+        <v>22.87260553218265</v>
       </c>
       <c r="J7">
-        <v>6.876473968477828</v>
+        <v>11.35956884562183</v>
       </c>
       <c r="K7">
-        <v>9.872336386295782</v>
+        <v>9.282940534336642</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.5236415671556</v>
+        <v>16.1260414027993</v>
       </c>
       <c r="N7">
-        <v>12.96131248118068</v>
+        <v>19.67146853569639</v>
       </c>
       <c r="O7">
-        <v>15.9157836763312</v>
+        <v>24.88937658787475</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.8665261966303</v>
+        <v>9.194554348399244</v>
       </c>
       <c r="C8">
-        <v>6.755217752944791</v>
+        <v>4.389767940730955</v>
       </c>
       <c r="D8">
-        <v>7.859652043912349</v>
+        <v>10.34684761622062</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.84284169648351</v>
+        <v>33.56589590174064</v>
       </c>
       <c r="G8">
-        <v>2.101969516992563</v>
+        <v>3.658303750435744</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.26438468221579</v>
+        <v>22.76579069748566</v>
       </c>
       <c r="J8">
-        <v>6.938794405557847</v>
+        <v>11.33538112581861</v>
       </c>
       <c r="K8">
-        <v>10.71620398333313</v>
+        <v>9.484055331928205</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.20538885240297</v>
+        <v>16.21295651526068</v>
       </c>
       <c r="N8">
-        <v>12.71667354013725</v>
+        <v>19.59630729863364</v>
       </c>
       <c r="O8">
-        <v>15.9001991126331</v>
+        <v>24.79434626784846</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.66103353179378</v>
+        <v>9.80342151066332</v>
       </c>
       <c r="C9">
-        <v>7.740382351190409</v>
+        <v>4.794556727772744</v>
       </c>
       <c r="D9">
-        <v>8.659655505994387</v>
+        <v>10.46185029653205</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.6427486318212</v>
+        <v>33.47336754297626</v>
       </c>
       <c r="G9">
-        <v>2.091657693910429</v>
+        <v>3.654458386752441</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.00978070876565</v>
+        <v>22.5861728044918</v>
       </c>
       <c r="J9">
-        <v>7.088083335565254</v>
+        <v>11.30061715212157</v>
       </c>
       <c r="K9">
-        <v>12.20150385080869</v>
+        <v>9.87750153812093</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.47751508863929</v>
+        <v>16.40315507815216</v>
       </c>
       <c r="N9">
-        <v>12.25740714861035</v>
+        <v>19.46201549633595</v>
       </c>
       <c r="O9">
-        <v>15.96705403083694</v>
+        <v>24.64420792433135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.84609442799014</v>
+        <v>10.23346393059576</v>
       </c>
       <c r="C10">
-        <v>8.394396240705683</v>
+        <v>5.073221116488372</v>
       </c>
       <c r="D10">
-        <v>9.220131443109151</v>
+        <v>10.55419830277275</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.30873645104217</v>
+        <v>33.4399478483944</v>
       </c>
       <c r="G10">
-        <v>2.084461770818683</v>
+        <v>3.651894566194346</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.87565042453624</v>
+        <v>22.47241318128677</v>
       </c>
       <c r="J10">
-        <v>7.214714007352282</v>
+        <v>11.28278746354336</v>
       </c>
       <c r="K10">
-        <v>13.18892310779633</v>
+        <v>10.16319097832488</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.36438376496571</v>
+        <v>16.55410308086308</v>
       </c>
       <c r="N10">
-        <v>11.93114387640674</v>
+        <v>19.37125678537624</v>
       </c>
       <c r="O10">
-        <v>16.08149573003838</v>
+        <v>24.5560506286679</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.35665797430976</v>
+        <v>10.42442490473794</v>
       </c>
       <c r="C11">
-        <v>8.676947131743653</v>
+        <v>5.195418445343894</v>
       </c>
       <c r="D11">
-        <v>9.468297515326093</v>
+        <v>10.59779832344047</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.62869959955618</v>
+        <v>33.4322521946696</v>
       </c>
       <c r="G11">
-        <v>2.081264053918366</v>
+        <v>3.650784400501613</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.82746606132589</v>
+        <v>22.42461682156724</v>
       </c>
       <c r="J11">
-        <v>7.276075470519657</v>
+        <v>11.27634734656736</v>
       </c>
       <c r="K11">
-        <v>13.61564787385891</v>
+        <v>10.2918603607076</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.75615700481058</v>
+        <v>16.62501588311345</v>
       </c>
       <c r="N11">
-        <v>11.78483315538886</v>
+        <v>19.33166780094952</v>
       </c>
       <c r="O11">
-        <v>16.14897377118993</v>
+        <v>24.52076874952451</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.54592906270016</v>
+        <v>10.49599755445065</v>
       </c>
       <c r="C12">
-        <v>8.78180823521933</v>
+        <v>5.240999474497957</v>
       </c>
       <c r="D12">
-        <v>9.561236519912249</v>
+        <v>10.61452670961945</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.75229498490696</v>
+        <v>33.43041676532258</v>
       </c>
       <c r="G12">
-        <v>2.080063478206751</v>
+        <v>3.650372037776321</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.81118306976216</v>
+        <v>22.40708641205856</v>
       </c>
       <c r="J12">
-        <v>7.299856251483663</v>
+        <v>11.27414849623995</v>
       </c>
       <c r="K12">
-        <v>13.77402109001969</v>
+        <v>10.34035357417017</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.90274920567987</v>
+        <v>16.65217464703712</v>
       </c>
       <c r="N12">
-        <v>11.72970553630903</v>
+        <v>19.31691933703717</v>
       </c>
       <c r="O12">
-        <v>16.17684046931908</v>
+        <v>24.50810270161911</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.50534651720195</v>
+        <v>10.48061705216598</v>
       </c>
       <c r="C13">
-        <v>8.759319165614293</v>
+        <v>5.231214095476508</v>
       </c>
       <c r="D13">
-        <v>9.541267340443431</v>
+        <v>10.61091443053589</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.72556856763791</v>
+        <v>33.43076409900429</v>
       </c>
       <c r="G13">
-        <v>2.080321593516154</v>
+        <v>3.650460490808161</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.81460064365497</v>
+        <v>22.41083658288804</v>
       </c>
       <c r="J13">
-        <v>7.294710352958848</v>
+        <v>11.27461139556327</v>
       </c>
       <c r="K13">
-        <v>13.74005547953812</v>
+        <v>10.32992066937052</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.87125758594956</v>
+        <v>16.64631220926572</v>
       </c>
       <c r="N13">
-        <v>11.74156636412969</v>
+        <v>19.32008489123323</v>
       </c>
       <c r="O13">
-        <v>16.17073443331471</v>
+        <v>24.51079965959256</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.37231075133658</v>
+        <v>10.43032843554125</v>
       </c>
       <c r="C14">
-        <v>8.685616795010681</v>
+        <v>5.199182487995158</v>
       </c>
       <c r="D14">
-        <v>9.475964725017715</v>
+        <v>10.59917027120804</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.63881920424169</v>
+        <v>33.4320795796497</v>
       </c>
       <c r="G14">
-        <v>2.081165078130103</v>
+        <v>3.650750314398874</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.826086405107</v>
+        <v>22.42316317685136</v>
       </c>
       <c r="J14">
-        <v>7.278020993475939</v>
+        <v>11.27616164051226</v>
       </c>
       <c r="K14">
-        <v>13.62874174802753</v>
+        <v>10.29585480983928</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.76825301454424</v>
+        <v>16.62724422665467</v>
       </c>
       <c r="N14">
-        <v>11.78029237481274</v>
+        <v>19.33044957155706</v>
       </c>
       <c r="O14">
-        <v>16.15121945378676</v>
+        <v>24.51971278252895</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.29029374632357</v>
+        <v>10.39942688054624</v>
       </c>
       <c r="C15">
-        <v>8.640194503994062</v>
+        <v>5.179471055119427</v>
       </c>
       <c r="D15">
-        <v>9.435828504196316</v>
+        <v>10.59200470170665</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.58599903481103</v>
+        <v>33.43302580111842</v>
       </c>
       <c r="G15">
-        <v>2.08168306489949</v>
+        <v>3.650928884707839</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.83338105299711</v>
+        <v>22.43078769259555</v>
       </c>
       <c r="J15">
-        <v>7.267869312430676</v>
+        <v>11.27714243830791</v>
       </c>
       <c r="K15">
-        <v>13.5601401929542</v>
+        <v>10.27495708446723</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.70492778054097</v>
+        <v>16.61560381605447</v>
       </c>
       <c r="N15">
-        <v>11.80404845801154</v>
+        <v>19.33682985446474</v>
       </c>
       <c r="O15">
-        <v>16.13957018346514</v>
+        <v>24.52526279534996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.81215670479314</v>
+        <v>10.22088422205645</v>
       </c>
       <c r="C16">
-        <v>8.375631155086419</v>
+        <v>5.065140157383652</v>
       </c>
       <c r="D16">
-        <v>9.203771158757505</v>
+        <v>10.55138003612984</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.28816724329347</v>
+        <v>33.44060178831162</v>
       </c>
       <c r="G16">
-        <v>2.084672226022229</v>
+        <v>3.651968244307404</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.87906757820363</v>
+        <v>22.47561638481685</v>
       </c>
       <c r="J16">
-        <v>7.210779866075624</v>
+        <v>11.28324192941935</v>
       </c>
       <c r="K16">
-        <v>13.16058456920687</v>
+        <v>10.1547522122833</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.33853792605794</v>
+        <v>16.54951248425193</v>
       </c>
       <c r="N16">
-        <v>11.9407458529762</v>
+        <v>19.3738780855251</v>
       </c>
       <c r="O16">
-        <v>16.07740449512315</v>
+        <v>24.55845349906178</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.5115520147872</v>
+        <v>10.11010756215111</v>
       </c>
       <c r="C17">
-        <v>8.209508750459934</v>
+        <v>4.993804925079062</v>
       </c>
       <c r="D17">
-        <v>9.059625239054046</v>
+        <v>10.5268579717621</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.10980405165758</v>
+        <v>33.44717181330208</v>
       </c>
       <c r="G17">
-        <v>2.086524989843845</v>
+        <v>3.652620206367659</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.91046376307175</v>
+        <v>22.50413028761569</v>
       </c>
       <c r="J17">
-        <v>7.176722749072857</v>
+        <v>11.28741143622078</v>
       </c>
       <c r="K17">
-        <v>12.90972444283057</v>
+        <v>10.08064659622925</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.11071443293213</v>
+        <v>16.50953062930657</v>
       </c>
       <c r="N17">
-        <v>12.02512714131532</v>
+        <v>19.39703999553204</v>
       </c>
       <c r="O17">
-        <v>16.04328672410054</v>
+        <v>24.58005061627078</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.33596489112285</v>
+        <v>10.04595614681916</v>
       </c>
       <c r="C18">
-        <v>8.112549912084976</v>
+        <v>4.952346571375758</v>
       </c>
       <c r="D18">
-        <v>8.976079293906057</v>
+        <v>10.51290389353073</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.00881564295126</v>
+        <v>33.45165740898122</v>
       </c>
       <c r="G18">
-        <v>2.087597815493501</v>
+        <v>3.653000483114572</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.9297224405777</v>
+        <v>22.52090281664815</v>
       </c>
       <c r="J18">
-        <v>7.157487363359192</v>
+        <v>11.28996690555029</v>
       </c>
       <c r="K18">
-        <v>12.76332150915518</v>
+        <v>10.0379039626787</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.97858213569292</v>
+        <v>16.48674657814317</v>
       </c>
       <c r="N18">
-        <v>12.07386109785836</v>
+        <v>19.41052196489139</v>
       </c>
       <c r="O18">
-        <v>16.02510864664109</v>
+        <v>24.5929264506913</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.27605158097948</v>
+        <v>10.02416296787823</v>
       </c>
       <c r="C19">
-        <v>8.079478743463358</v>
+        <v>4.938237101078827</v>
       </c>
       <c r="D19">
-        <v>8.947684634132951</v>
+        <v>10.50820542790454</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.97489805911838</v>
+        <v>33.45329754298977</v>
       </c>
       <c r="G19">
-        <v>2.087962303002873</v>
+        <v>3.65313014723655</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.93644575972444</v>
+        <v>22.52664559693589</v>
       </c>
       <c r="J19">
-        <v>7.151035141940095</v>
+        <v>11.29085916651008</v>
       </c>
       <c r="K19">
-        <v>12.71338852051828</v>
+        <v>10.02341300879578</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.93365937971708</v>
+        <v>16.47906929886139</v>
       </c>
       <c r="N19">
-        <v>12.09039670991234</v>
+        <v>19.41511421604094</v>
       </c>
       <c r="O19">
-        <v>16.01919913492231</v>
+        <v>24.59736388165047</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54382978109735</v>
+        <v>10.12194553021787</v>
       </c>
       <c r="C20">
-        <v>8.227338541480336</v>
+        <v>5.001443273547243</v>
       </c>
       <c r="D20">
-        <v>9.07503620820977</v>
+        <v>10.52945290160826</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.12862546002453</v>
+        <v>33.44639928668321</v>
       </c>
       <c r="G20">
-        <v>2.086327022400038</v>
+        <v>3.652550257152012</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.90699650776751</v>
+        <v>22.50105642061964</v>
       </c>
       <c r="J20">
-        <v>7.180311582010883</v>
+        <v>11.28695130972619</v>
       </c>
       <c r="K20">
-        <v>12.93664774456058</v>
+        <v>10.08854792062184</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.13508056160135</v>
+        <v>16.51376490172343</v>
       </c>
       <c r="N20">
-        <v>12.01612408642718</v>
+        <v>19.39455783457115</v>
       </c>
       <c r="O20">
-        <v>16.0467682966815</v>
+        <v>24.57770459692729</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.41149670907234</v>
+        <v>10.4451200264158</v>
       </c>
       <c r="C21">
-        <v>8.707322756217204</v>
+        <v>5.208609999504078</v>
       </c>
       <c r="D21">
-        <v>9.495174218487438</v>
+        <v>10.60261398587513</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.66423370130348</v>
+        <v>33.43166392334074</v>
       </c>
       <c r="G21">
-        <v>2.080917050529377</v>
+        <v>3.650664968477086</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.82265850504398</v>
+        <v>22.41952710969122</v>
       </c>
       <c r="J21">
-        <v>7.282908252511161</v>
+        <v>11.27569978883371</v>
       </c>
       <c r="K21">
-        <v>13.66152451448775</v>
+        <v>10.30586740070635</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.79855642384294</v>
+        <v>16.63283680113659</v>
       </c>
       <c r="N21">
-        <v>11.76891030243722</v>
+        <v>19.32739862669017</v>
       </c>
       <c r="O21">
-        <v>16.1568879080198</v>
+        <v>24.51707592701344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.95487185215735</v>
+        <v>10.65199162204061</v>
       </c>
       <c r="C22">
-        <v>9.008586854270078</v>
+        <v>5.339956141432549</v>
       </c>
       <c r="D22">
-        <v>9.763699892693509</v>
+        <v>10.65169448547679</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.02845398567935</v>
+        <v>33.42832049030286</v>
       </c>
       <c r="G22">
-        <v>2.077441249613205</v>
+        <v>3.649479627827755</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.77904140496211</v>
+        <v>22.36956001345859</v>
       </c>
       <c r="J22">
-        <v>7.353136738424226</v>
+        <v>11.26974427713712</v>
       </c>
       <c r="K22">
-        <v>14.11652416299356</v>
+        <v>10.44653178025833</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.25646657842389</v>
+        <v>16.71243023593575</v>
       </c>
       <c r="N22">
-        <v>11.60894357883686</v>
+        <v>19.2849222416709</v>
       </c>
       <c r="O22">
-        <v>16.24238966360026</v>
+        <v>24.48149972933265</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.66701859473456</v>
+        <v>10.54199878152462</v>
       </c>
       <c r="C23">
-        <v>8.848927861764432</v>
+        <v>5.27023525268085</v>
       </c>
       <c r="D23">
-        <v>9.620953639191871</v>
+        <v>10.62538712699751</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.8327712384922</v>
+        <v>33.42953009624461</v>
       </c>
       <c r="G23">
-        <v>2.079291060658043</v>
+        <v>3.650107996420468</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.80122777113899</v>
+        <v>22.39592470769854</v>
       </c>
       <c r="J23">
-        <v>7.315362586883172</v>
+        <v>11.27279506277905</v>
       </c>
       <c r="K23">
-        <v>13.87539279327449</v>
+        <v>10.37159599658481</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.99690561930161</v>
+        <v>16.66979332544007</v>
       </c>
       <c r="N23">
-        <v>11.69418329018893</v>
+        <v>19.30746347703055</v>
       </c>
       <c r="O23">
-        <v>16.1954861776154</v>
+        <v>24.5001166631949</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52924561934374</v>
+        <v>10.11659502616495</v>
       </c>
       <c r="C24">
-        <v>8.219282219527241</v>
+        <v>4.997991365073335</v>
       </c>
       <c r="D24">
-        <v>9.068071005510625</v>
+        <v>10.52827928453103</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.12011145699955</v>
+        <v>33.44674633929606</v>
       </c>
       <c r="G24">
-        <v>2.086416499620511</v>
+        <v>3.652581864197055</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.90856029827524</v>
+        <v>22.50244493378303</v>
       </c>
       <c r="J24">
-        <v>7.178687997917176</v>
+        <v>11.28715883959905</v>
       </c>
       <c r="K24">
-        <v>12.92448251117198</v>
+        <v>10.08497615924971</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.12406822112364</v>
+        <v>16.5118499564888</v>
       </c>
       <c r="N24">
-        <v>12.02019367401607</v>
+        <v>19.39567950274713</v>
       </c>
       <c r="O24">
-        <v>16.04518981016089</v>
+        <v>24.57876380146191</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.19911874265151</v>
+        <v>9.641409246736805</v>
       </c>
       <c r="C25">
-        <v>7.486172064426495</v>
+        <v>4.688149742261509</v>
       </c>
       <c r="D25">
-        <v>8.447682897420158</v>
+        <v>10.42932097683448</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.41261967715973</v>
+        <v>33.49233231849311</v>
       </c>
       <c r="G25">
-        <v>2.094378397844553</v>
+        <v>3.655452567668083</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.06979928859123</v>
+        <v>22.63156793804531</v>
       </c>
       <c r="J25">
-        <v>7.044747942446039</v>
+        <v>11.30866649331136</v>
       </c>
       <c r="K25">
-        <v>11.81792349943039</v>
+        <v>9.771459093436958</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.14124544503636</v>
+        <v>16.34966971815853</v>
       </c>
       <c r="N25">
-        <v>12.37959155032128</v>
+        <v>19.49695095320811</v>
       </c>
       <c r="O25">
-        <v>15.93791939252739</v>
+        <v>24.68093947236139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_123/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_123/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.280306156861851</v>
+        <v>12.13002520597237</v>
       </c>
       <c r="C2">
-        <v>4.447645291865344</v>
+        <v>6.899451445386949</v>
       </c>
       <c r="D2">
-        <v>10.36178816753482</v>
+        <v>7.972947034529645</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.54911877370986</v>
+        <v>22.94434495324571</v>
       </c>
       <c r="G2">
-        <v>3.657742004949989</v>
+        <v>2.100498480915093</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.73886863982194</v>
+        <v>14.22354939527693</v>
       </c>
       <c r="J2">
-        <v>11.32968507126717</v>
+        <v>6.957493591205951</v>
       </c>
       <c r="K2">
-        <v>9.53859081514925</v>
+        <v>10.93341720133976</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.23787269867134</v>
+        <v>12.38608388007076</v>
       </c>
       <c r="N2">
-        <v>19.57683185014094</v>
+        <v>12.65182055375221</v>
       </c>
       <c r="O2">
-        <v>24.77104584977666</v>
+        <v>15.90234490897508</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.030210797441091</v>
+        <v>11.3489885259302</v>
       </c>
       <c r="C3">
-        <v>4.277911756317233</v>
+        <v>6.472394300667025</v>
       </c>
       <c r="D3">
-        <v>10.31951106018192</v>
+        <v>7.641808190210398</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.6020666184061</v>
+        <v>22.65958868844687</v>
       </c>
       <c r="G3">
-        <v>3.659404128894479</v>
+        <v>2.10481644660375</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.81921275519354</v>
+        <v>14.34770013721407</v>
       </c>
       <c r="J3">
-        <v>11.34716626520602</v>
+        <v>6.90530323659074</v>
       </c>
       <c r="K3">
-        <v>9.380431016574175</v>
+        <v>10.29060778854939</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.16713098031706</v>
+        <v>11.8573536223403</v>
       </c>
       <c r="N3">
-        <v>19.63431106048354</v>
+        <v>12.84149658926425</v>
       </c>
       <c r="O3">
-        <v>24.84136793999944</v>
+        <v>15.90335051936198</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.874608905566012</v>
+        <v>10.84142540959291</v>
       </c>
       <c r="C4">
-        <v>4.170760155576389</v>
+        <v>6.195659398433673</v>
       </c>
       <c r="D4">
-        <v>10.29532626544949</v>
+        <v>7.434585210560039</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.64169927920811</v>
+        <v>22.50065616439073</v>
       </c>
       <c r="G4">
-        <v>3.660479510867735</v>
+        <v>2.107554670361822</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.87230482645739</v>
+        <v>14.43318218211786</v>
       </c>
       <c r="J4">
-        <v>11.35949728460555</v>
+        <v>6.876623676484208</v>
       </c>
       <c r="K4">
-        <v>9.283472633348939</v>
+        <v>9.874672423090345</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.12625983289112</v>
+        <v>11.52548104896117</v>
       </c>
       <c r="N4">
-        <v>19.67126151905453</v>
+        <v>12.96065108965542</v>
       </c>
       <c r="O4">
-        <v>24.88910343816542</v>
+        <v>15.91568886294741</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.810784461670211</v>
+        <v>10.6275345974325</v>
       </c>
       <c r="C5">
-        <v>4.12642360227914</v>
+        <v>6.079243149680075</v>
       </c>
       <c r="D5">
-        <v>10.28592428803826</v>
+        <v>7.349286024791571</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.65963898400152</v>
+        <v>22.43985556030578</v>
       </c>
       <c r="G5">
-        <v>3.660931567549819</v>
+        <v>2.10869280137822</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.89488569068002</v>
+        <v>14.47026020925078</v>
       </c>
       <c r="J5">
-        <v>11.36492412322111</v>
+        <v>6.865773114402692</v>
       </c>
       <c r="K5">
-        <v>9.244049314856534</v>
+        <v>9.699868542270714</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.11026206432033</v>
+        <v>11.38861915180166</v>
       </c>
       <c r="N5">
-        <v>19.68673725808937</v>
+        <v>13.00990334933273</v>
       </c>
       <c r="O5">
-        <v>24.90970078226614</v>
+        <v>15.92356421843318</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.800164344842754</v>
+        <v>10.5915918404448</v>
       </c>
       <c r="C6">
-        <v>4.119023083714421</v>
+        <v>6.059692527586464</v>
       </c>
       <c r="D6">
-        <v>10.2843906989766</v>
+        <v>7.335074574578905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.66272584799746</v>
+        <v>22.42999793831559</v>
       </c>
       <c r="G6">
-        <v>3.66100746774123</v>
+        <v>2.10888314474228</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.89869232154539</v>
+        <v>14.47655012634634</v>
       </c>
       <c r="J6">
-        <v>11.36584951962802</v>
+        <v>6.864021604866881</v>
       </c>
       <c r="K6">
-        <v>9.237509879843298</v>
+        <v>9.670523300925479</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.10764571703708</v>
+        <v>11.36580166263682</v>
       </c>
       <c r="N6">
-        <v>19.68933228228354</v>
+        <v>13.01812421011071</v>
       </c>
       <c r="O6">
-        <v>24.91319005665724</v>
+        <v>15.92504095490248</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.873749695136507</v>
+        <v>10.83856938069314</v>
       </c>
       <c r="C7">
-        <v>4.170164842694754</v>
+        <v>6.194104111131442</v>
       </c>
       <c r="D7">
-        <v>10.29519762120245</v>
+        <v>7.433438115502682</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.64193397937103</v>
+        <v>22.49982018374698</v>
       </c>
       <c r="G7">
-        <v>3.660485551409653</v>
+        <v>2.107569928839109</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.87260553218265</v>
+        <v>14.43367325295979</v>
       </c>
       <c r="J7">
-        <v>11.35956884562183</v>
+        <v>6.87647396847777</v>
       </c>
       <c r="K7">
-        <v>9.282940534336642</v>
+        <v>9.872336386295778</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.1260414027993</v>
+        <v>11.52364156715559</v>
       </c>
       <c r="N7">
-        <v>19.67146853569639</v>
+        <v>12.96131248118071</v>
       </c>
       <c r="O7">
-        <v>24.88937658787475</v>
+        <v>15.91578367633131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.194554348399244</v>
+        <v>11.86652619663028</v>
       </c>
       <c r="C8">
-        <v>4.389767940730955</v>
+        <v>6.755217752944835</v>
       </c>
       <c r="D8">
-        <v>10.34684761622062</v>
+        <v>7.859652043912247</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.56589590174064</v>
+        <v>22.84284169648336</v>
       </c>
       <c r="G8">
-        <v>3.658303750435744</v>
+        <v>2.101969516992696</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.76579069748566</v>
+        <v>14.26438468221579</v>
       </c>
       <c r="J8">
-        <v>11.33538112581861</v>
+        <v>6.938794405557847</v>
       </c>
       <c r="K8">
-        <v>9.484055331928205</v>
+        <v>10.71620398333317</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.21295651526068</v>
+        <v>12.20538885240292</v>
       </c>
       <c r="N8">
-        <v>19.59630729863364</v>
+        <v>12.71667354013725</v>
       </c>
       <c r="O8">
-        <v>24.79434626784846</v>
+        <v>15.90019911263304</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.80342151066332</v>
+        <v>13.6610335317938</v>
       </c>
       <c r="C9">
-        <v>4.794556727772744</v>
+        <v>7.740382351190379</v>
       </c>
       <c r="D9">
-        <v>10.46185029653205</v>
+        <v>8.659655505994362</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.47336754297626</v>
+        <v>23.64274863182118</v>
       </c>
       <c r="G9">
-        <v>3.654458386752441</v>
+        <v>2.091657693910429</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.5861728044918</v>
+        <v>14.00978070876569</v>
       </c>
       <c r="J9">
-        <v>11.30061715212157</v>
+        <v>7.088083335565246</v>
       </c>
       <c r="K9">
-        <v>9.87750153812093</v>
+        <v>12.20150385080869</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.40315507815216</v>
+        <v>13.47751508863928</v>
       </c>
       <c r="N9">
-        <v>19.46201549633595</v>
+        <v>12.25740714861035</v>
       </c>
       <c r="O9">
-        <v>24.64420792433135</v>
+        <v>15.96705403083696</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.23346393059576</v>
+        <v>14.84609442799012</v>
       </c>
       <c r="C10">
-        <v>5.073221116488372</v>
+        <v>8.394396240705634</v>
       </c>
       <c r="D10">
-        <v>10.55419830277275</v>
+        <v>9.22013144310913</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.4399478483944</v>
+        <v>24.30873645104218</v>
       </c>
       <c r="G10">
-        <v>3.651894566194346</v>
+        <v>2.084461770818815</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.47241318128677</v>
+        <v>13.8756504245363</v>
       </c>
       <c r="J10">
-        <v>11.28278746354336</v>
+        <v>7.214714007352292</v>
       </c>
       <c r="K10">
-        <v>10.16319097832488</v>
+        <v>13.18892310779631</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.55410308086308</v>
+        <v>14.3643837649657</v>
       </c>
       <c r="N10">
-        <v>19.37125678537624</v>
+        <v>11.93114387640678</v>
       </c>
       <c r="O10">
-        <v>24.5560506286679</v>
+        <v>16.08149573003843</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.42442490473794</v>
+        <v>15.3566579743098</v>
       </c>
       <c r="C11">
-        <v>5.195418445343894</v>
+        <v>8.676947131743836</v>
       </c>
       <c r="D11">
-        <v>10.59779832344047</v>
+        <v>9.468297515326011</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.4322521946696</v>
+        <v>24.62869959955607</v>
       </c>
       <c r="G11">
-        <v>3.650784400501613</v>
+        <v>2.081264053918501</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.42461682156724</v>
+        <v>13.82746606132585</v>
       </c>
       <c r="J11">
-        <v>11.27634734656736</v>
+        <v>7.27607547051962</v>
       </c>
       <c r="K11">
-        <v>10.2918603607076</v>
+        <v>13.61564787385896</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.62501588311345</v>
+        <v>14.75615700481056</v>
       </c>
       <c r="N11">
-        <v>19.33166780094952</v>
+        <v>11.78483315538883</v>
       </c>
       <c r="O11">
-        <v>24.52076874952451</v>
+        <v>16.14897377118984</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.49599755445065</v>
+        <v>15.54592906270017</v>
       </c>
       <c r="C12">
-        <v>5.240999474497957</v>
+        <v>8.781808235219241</v>
       </c>
       <c r="D12">
-        <v>10.61452670961945</v>
+        <v>9.561236519912235</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.43041676532258</v>
+        <v>24.75229498490696</v>
       </c>
       <c r="G12">
-        <v>3.650372037776321</v>
+        <v>2.080063478206885</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.40708641205856</v>
+        <v>13.81118306976214</v>
       </c>
       <c r="J12">
-        <v>11.27414849623995</v>
+        <v>7.299856251483614</v>
       </c>
       <c r="K12">
-        <v>10.34035357417017</v>
+        <v>13.7740210900197</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.65217464703712</v>
+        <v>14.90274920567985</v>
       </c>
       <c r="N12">
-        <v>19.31691933703717</v>
+        <v>11.72970553630899</v>
       </c>
       <c r="O12">
-        <v>24.50810270161911</v>
+        <v>16.17684046931904</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.48061705216598</v>
+        <v>15.50534651720205</v>
       </c>
       <c r="C13">
-        <v>5.231214095476508</v>
+        <v>8.759319165614222</v>
       </c>
       <c r="D13">
-        <v>10.61091443053589</v>
+        <v>9.541267340443431</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.43076409900429</v>
+        <v>24.72556856763788</v>
       </c>
       <c r="G13">
-        <v>3.650460490808161</v>
+        <v>2.080321593516286</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.41083658288804</v>
+        <v>13.81460064365485</v>
       </c>
       <c r="J13">
-        <v>11.27461139556327</v>
+        <v>7.294710352958828</v>
       </c>
       <c r="K13">
-        <v>10.32992066937052</v>
+        <v>13.74005547953818</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.64631220926572</v>
+        <v>14.87125758594955</v>
       </c>
       <c r="N13">
-        <v>19.32008489123323</v>
+        <v>11.74156636412966</v>
       </c>
       <c r="O13">
-        <v>24.51079965959256</v>
+        <v>16.17073443331464</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.43032843554125</v>
+        <v>15.37231075133653</v>
       </c>
       <c r="C14">
-        <v>5.199182487995158</v>
+        <v>8.685616795010837</v>
       </c>
       <c r="D14">
-        <v>10.59917027120804</v>
+        <v>9.475964725017766</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.4320795796497</v>
+        <v>24.63881920424178</v>
       </c>
       <c r="G14">
-        <v>3.650750314398874</v>
+        <v>2.081165078130368</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.42316317685136</v>
+        <v>13.82608640510707</v>
       </c>
       <c r="J14">
-        <v>11.27616164051226</v>
+        <v>7.278020993475962</v>
       </c>
       <c r="K14">
-        <v>10.29585480983928</v>
+        <v>13.62874174802756</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.62724422665467</v>
+        <v>14.76825301454426</v>
       </c>
       <c r="N14">
-        <v>19.33044957155706</v>
+        <v>11.78029237481274</v>
       </c>
       <c r="O14">
-        <v>24.51971278252895</v>
+        <v>16.15121945378674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.39942688054624</v>
+        <v>15.29029374632363</v>
       </c>
       <c r="C15">
-        <v>5.179471055119427</v>
+        <v>8.640194503994032</v>
       </c>
       <c r="D15">
-        <v>10.59200470170665</v>
+        <v>9.435828504196293</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.43302580111842</v>
+        <v>24.58599903481098</v>
       </c>
       <c r="G15">
-        <v>3.650928884707839</v>
+        <v>2.081683064899626</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.43078769259555</v>
+        <v>13.83338105299705</v>
       </c>
       <c r="J15">
-        <v>11.27714243830791</v>
+        <v>7.267869312430641</v>
       </c>
       <c r="K15">
-        <v>10.27495708446723</v>
+        <v>13.56014019295424</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.61560381605447</v>
+        <v>14.70492778054095</v>
       </c>
       <c r="N15">
-        <v>19.33682985446474</v>
+        <v>11.80404845801151</v>
       </c>
       <c r="O15">
-        <v>24.52526279534996</v>
+        <v>16.13957018346509</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.22088422205645</v>
+        <v>14.8121567047932</v>
       </c>
       <c r="C16">
-        <v>5.065140157383652</v>
+        <v>8.375631155086403</v>
       </c>
       <c r="D16">
-        <v>10.55138003612984</v>
+        <v>9.203771158757476</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.44060178831162</v>
+        <v>24.28816724329339</v>
       </c>
       <c r="G16">
-        <v>3.651968244307404</v>
+        <v>2.084672226022096</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.47561638481685</v>
+        <v>13.87906757820361</v>
       </c>
       <c r="J16">
-        <v>11.28324192941935</v>
+        <v>7.210779866075649</v>
       </c>
       <c r="K16">
-        <v>10.1547522122833</v>
+        <v>13.16058456920691</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.54951248425193</v>
+        <v>14.33853792605792</v>
       </c>
       <c r="N16">
-        <v>19.3738780855251</v>
+        <v>11.9407458529762</v>
       </c>
       <c r="O16">
-        <v>24.55845349906178</v>
+        <v>16.0774044951231</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.11010756215111</v>
+        <v>14.51155201478719</v>
       </c>
       <c r="C17">
-        <v>4.993804925079062</v>
+        <v>8.209508750459934</v>
       </c>
       <c r="D17">
-        <v>10.5268579717621</v>
+        <v>9.05962523905405</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.44717181330208</v>
+        <v>24.1098040516576</v>
       </c>
       <c r="G17">
-        <v>3.652620206367659</v>
+        <v>2.086524989843844</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.50413028761569</v>
+        <v>13.91046376307178</v>
       </c>
       <c r="J17">
-        <v>11.28741143622078</v>
+        <v>7.176722749072901</v>
       </c>
       <c r="K17">
-        <v>10.08064659622925</v>
+        <v>12.90972444283054</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.50953062930657</v>
+        <v>14.11071443293215</v>
       </c>
       <c r="N17">
-        <v>19.39703999553204</v>
+        <v>12.02512714131532</v>
       </c>
       <c r="O17">
-        <v>24.58005061627078</v>
+        <v>16.04328672410058</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.04595614681916</v>
+        <v>14.33596489112285</v>
       </c>
       <c r="C18">
-        <v>4.952346571375758</v>
+        <v>8.112549912084832</v>
       </c>
       <c r="D18">
-        <v>10.51290389353073</v>
+        <v>8.976079293906094</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.45165740898122</v>
+        <v>24.00881564295134</v>
       </c>
       <c r="G18">
-        <v>3.653000483114572</v>
+        <v>2.087597815493368</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.52090281664815</v>
+        <v>13.9297224405777</v>
       </c>
       <c r="J18">
-        <v>11.28996690555029</v>
+        <v>7.157487363359147</v>
       </c>
       <c r="K18">
-        <v>10.0379039626787</v>
+        <v>12.76332150915514</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.48674657814317</v>
+        <v>13.97858213569293</v>
       </c>
       <c r="N18">
-        <v>19.41052196489139</v>
+        <v>12.07386109785836</v>
       </c>
       <c r="O18">
-        <v>24.5929264506913</v>
+        <v>16.02510864664112</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.02416296787823</v>
+        <v>14.27605158097952</v>
       </c>
       <c r="C19">
-        <v>4.938237101078827</v>
+        <v>8.079478743463401</v>
       </c>
       <c r="D19">
-        <v>10.50820542790454</v>
+        <v>8.947684634132884</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.45329754298977</v>
+        <v>23.97489805911831</v>
       </c>
       <c r="G19">
-        <v>3.65313014723655</v>
+        <v>2.087962303002874</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.52664559693589</v>
+        <v>13.93644575972438</v>
       </c>
       <c r="J19">
-        <v>11.29085916651008</v>
+        <v>7.151035141940095</v>
       </c>
       <c r="K19">
-        <v>10.02341300879578</v>
+        <v>12.71338852051831</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.47906929886139</v>
+        <v>13.93365937971706</v>
       </c>
       <c r="N19">
-        <v>19.41511421604094</v>
+        <v>12.09039670991234</v>
       </c>
       <c r="O19">
-        <v>24.59736388165047</v>
+        <v>16.01919913492226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.12194553021787</v>
+        <v>14.54382978109732</v>
       </c>
       <c r="C20">
-        <v>5.001443273547243</v>
+        <v>8.22733854148035</v>
       </c>
       <c r="D20">
-        <v>10.52945290160826</v>
+        <v>9.075036208209715</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.44639928668321</v>
+        <v>24.12862546002458</v>
       </c>
       <c r="G20">
-        <v>3.652550257152012</v>
+        <v>2.086327022399904</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.50105642061964</v>
+        <v>13.90699650776756</v>
       </c>
       <c r="J20">
-        <v>11.28695130972619</v>
+        <v>7.180311582010892</v>
       </c>
       <c r="K20">
-        <v>10.08854792062184</v>
+        <v>12.93664774456054</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.51376490172343</v>
+        <v>14.13508056160135</v>
       </c>
       <c r="N20">
-        <v>19.39455783457115</v>
+        <v>12.01612408642718</v>
       </c>
       <c r="O20">
-        <v>24.57770459692729</v>
+        <v>16.04676829668155</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.4451200264158</v>
+        <v>15.4114967090724</v>
       </c>
       <c r="C21">
-        <v>5.208609999504078</v>
+        <v>8.70732275621711</v>
       </c>
       <c r="D21">
-        <v>10.60261398587513</v>
+        <v>9.49517421848749</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.43166392334074</v>
+        <v>24.66423370130346</v>
       </c>
       <c r="G21">
-        <v>3.650664968477086</v>
+        <v>2.080917050529511</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.41952710969122</v>
+        <v>13.82265850504384</v>
       </c>
       <c r="J21">
-        <v>11.27569978883371</v>
+        <v>7.282908252511058</v>
       </c>
       <c r="K21">
-        <v>10.30586740070635</v>
+        <v>13.66152451448776</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.63283680113659</v>
+        <v>14.79855642384294</v>
       </c>
       <c r="N21">
-        <v>19.32739862669017</v>
+        <v>11.76891030243715</v>
       </c>
       <c r="O21">
-        <v>24.51707592701344</v>
+        <v>16.15688790801971</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.65199162204061</v>
+        <v>15.95487185215735</v>
       </c>
       <c r="C22">
-        <v>5.339956141432549</v>
+        <v>9.008586854270046</v>
       </c>
       <c r="D22">
-        <v>10.65169448547679</v>
+        <v>9.763699892693475</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.42832049030286</v>
+        <v>25.02845398567936</v>
       </c>
       <c r="G22">
-        <v>3.649479627827755</v>
+        <v>2.077441249612938</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.36956001345859</v>
+        <v>13.77904140496214</v>
       </c>
       <c r="J22">
-        <v>11.26974427713712</v>
+        <v>7.353136738424213</v>
       </c>
       <c r="K22">
-        <v>10.44653178025833</v>
+        <v>14.11652416299356</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.71243023593575</v>
+        <v>15.2564665784239</v>
       </c>
       <c r="N22">
-        <v>19.2849222416709</v>
+        <v>11.60894357883686</v>
       </c>
       <c r="O22">
-        <v>24.48149972933265</v>
+        <v>16.24238966360029</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.54199878152462</v>
+        <v>15.66701859473468</v>
       </c>
       <c r="C23">
-        <v>5.27023525268085</v>
+        <v>8.848927861764334</v>
       </c>
       <c r="D23">
-        <v>10.62538712699751</v>
+        <v>9.620953639191946</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.42953009624461</v>
+        <v>24.83277123849219</v>
       </c>
       <c r="G23">
-        <v>3.650107996420468</v>
+        <v>2.079291060658176</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.39592470769854</v>
+        <v>13.80122777113887</v>
       </c>
       <c r="J23">
-        <v>11.27279506277905</v>
+        <v>7.315362586883194</v>
       </c>
       <c r="K23">
-        <v>10.37159599658481</v>
+        <v>13.87539279327454</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.66979332544007</v>
+        <v>14.99690561930161</v>
       </c>
       <c r="N23">
-        <v>19.30746347703055</v>
+        <v>11.69418329018889</v>
       </c>
       <c r="O23">
-        <v>24.5001166631949</v>
+        <v>16.19548617761533</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.11659502616495</v>
+        <v>14.52924561934374</v>
       </c>
       <c r="C24">
-        <v>4.997991365073335</v>
+        <v>8.219282219527225</v>
       </c>
       <c r="D24">
-        <v>10.52827928453103</v>
+        <v>9.068071005510605</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.44674633929606</v>
+        <v>24.12011145699948</v>
       </c>
       <c r="G24">
-        <v>3.652581864197055</v>
+        <v>2.086416499620245</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.50244493378303</v>
+        <v>13.90856029827522</v>
       </c>
       <c r="J24">
-        <v>11.28715883959905</v>
+        <v>7.178687997917196</v>
       </c>
       <c r="K24">
-        <v>10.08497615924971</v>
+        <v>12.92448251117198</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.5118499564888</v>
+        <v>14.12406822112363</v>
       </c>
       <c r="N24">
-        <v>19.39567950274713</v>
+        <v>12.02019367401604</v>
       </c>
       <c r="O24">
-        <v>24.57876380146191</v>
+        <v>16.04518981016087</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.641409246736805</v>
+        <v>13.19911874265156</v>
       </c>
       <c r="C25">
-        <v>4.688149742261509</v>
+        <v>7.48617206442645</v>
       </c>
       <c r="D25">
-        <v>10.42932097683448</v>
+        <v>8.447682897420123</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.49233231849311</v>
+        <v>23.41261967715979</v>
       </c>
       <c r="G25">
-        <v>3.655452567668083</v>
+        <v>2.094378397844687</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.63156793804531</v>
+        <v>14.06979928859134</v>
       </c>
       <c r="J25">
-        <v>11.30866649331136</v>
+        <v>7.044747942446078</v>
       </c>
       <c r="K25">
-        <v>9.771459093436958</v>
+        <v>11.8179234994304</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.34966971815853</v>
+        <v>13.14124544503635</v>
       </c>
       <c r="N25">
-        <v>19.49695095320811</v>
+        <v>12.37959155032135</v>
       </c>
       <c r="O25">
-        <v>24.68093947236139</v>
+        <v>15.93791939252744</v>
       </c>
     </row>
   </sheetData>
